--- a/虚拟号码.xlsx
+++ b/虚拟号码.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28000" windowHeight="11860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t>李锋</t>
   </si>
@@ -24,12 +24,18 @@
     <t>17052411365-343</t>
   </si>
   <si>
+    <t>收号不灵</t>
+  </si>
+  <si>
     <t>朱运中</t>
   </si>
   <si>
     <t>17052412061-798</t>
   </si>
   <si>
+    <t>可以</t>
+  </si>
+  <si>
     <t>骆松</t>
   </si>
   <si>
@@ -40,6 +46,9 @@
   </si>
   <si>
     <t>17052411907-671</t>
+  </si>
+  <si>
+    <t>不可以</t>
   </si>
   <si>
     <t>王梦丹</t>
@@ -209,10 +218,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -231,6 +240,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,6 +260,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -251,17 +290,80 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -273,105 +375,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -382,13 +391,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,13 +505,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,7 +523,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,139 +553,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,6 +582,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -591,11 +609,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,216 +682,159 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -836,54 +842,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1179,749 +1185,767 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B149"/>
+  <dimension ref="A1:C149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76:B106"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="19.875" customWidth="1"/>
     <col min="2" max="2" width="37.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:2">
+    <row r="1" ht="20.4" spans="1:2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" ht="18.75" spans="1:2">
+    <row r="2" ht="20.4" spans="1:2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" ht="18.75" spans="1:2">
+    <row r="3" ht="20.4" spans="1:2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" ht="18.75" spans="1:2">
+    <row r="4" ht="20.4" spans="1:2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" ht="18.75" spans="1:2">
+    <row r="5" ht="20.4" spans="1:2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" ht="18.75" spans="1:2">
+    <row r="6" ht="20.4" spans="1:2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" ht="18.75" spans="1:2">
+    <row r="7" ht="20.4" spans="1:2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" ht="18.75" spans="1:2">
+    <row r="8" ht="20.4" spans="1:2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" ht="18.75" spans="1:2">
+    <row r="9" ht="20.4" spans="1:2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" ht="18.75" spans="1:2">
+    <row r="10" ht="20.4" spans="1:2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" ht="18.75" spans="1:2">
+    <row r="11" ht="20.4" spans="1:2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" ht="18.75" spans="1:2">
+    <row r="12" ht="20.4" spans="1:2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" ht="18.75" spans="1:2">
+    <row r="13" ht="20.4" spans="1:2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" ht="18.75" spans="1:2">
+    <row r="14" ht="20.4" spans="1:2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" ht="18.75" spans="1:2">
+    <row r="15" ht="20.4" spans="1:2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" ht="18.75" spans="1:2">
+    <row r="16" ht="20.4" spans="1:2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" ht="18.75" spans="1:2">
+    <row r="17" ht="20.4" spans="1:2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" ht="18.75" spans="1:2">
+    <row r="18" ht="20.4" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" ht="18.75" spans="1:2">
+    <row r="19" ht="20.4" spans="1:2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" ht="18.75" spans="1:2">
+    <row r="20" ht="20.4" spans="1:2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" ht="18.75" spans="1:2">
+    <row r="21" ht="20.4" spans="1:2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" ht="18.75" spans="1:2">
+    <row r="22" ht="20.4" spans="1:2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" ht="18.75" spans="1:2">
+    <row r="23" ht="20.4" spans="1:2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" ht="18.75" spans="1:2">
+    <row r="24" ht="20.4" spans="1:2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
     </row>
-    <row r="25" ht="18.75" spans="1:2">
+    <row r="25" ht="20.4" spans="1:2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" ht="18.75" spans="1:2">
+    <row r="26" ht="20.4" spans="1:2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" ht="18.75" spans="1:2">
+    <row r="27" ht="20.4" spans="1:2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" ht="18.75" spans="1:2">
+    <row r="28" ht="20.4" spans="1:2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" ht="18.75" spans="1:2">
+    <row r="29" ht="20.4" spans="1:2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" ht="18.75" spans="1:2">
+    <row r="30" ht="20.4" spans="1:2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" ht="18.75" spans="1:2">
+    <row r="31" ht="20.4" spans="1:2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" ht="18.75" spans="1:2">
+    <row r="32" ht="20.4" spans="1:2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" ht="18.75" spans="1:2">
+    <row r="33" ht="20.4" spans="1:2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
     </row>
-    <row r="34" ht="18.75" spans="1:2">
+    <row r="34" ht="20.4" spans="1:2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
     </row>
-    <row r="35" ht="18.75" spans="1:2">
+    <row r="35" ht="20.4" spans="1:2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
     </row>
-    <row r="36" ht="18.75" spans="1:2">
+    <row r="36" ht="20.4" spans="1:2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
     </row>
-    <row r="37" ht="18.75" spans="1:2">
+    <row r="37" ht="20.4" spans="1:2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
     </row>
-    <row r="38" ht="18.75" spans="1:2">
+    <row r="38" ht="20.4" spans="1:2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
     </row>
-    <row r="39" ht="18.75" spans="1:2">
+    <row r="39" ht="20.4" spans="1:2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
     </row>
-    <row r="40" ht="18.75" spans="1:2">
+    <row r="40" ht="20.4" spans="1:2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
     </row>
-    <row r="41" ht="18.75" spans="1:2">
+    <row r="41" ht="20.4" spans="1:2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
     </row>
-    <row r="42" ht="18.75" spans="1:2">
+    <row r="42" ht="20.4" spans="1:2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
     </row>
-    <row r="43" ht="18.75" spans="1:2">
+    <row r="43" ht="20.4" spans="1:2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
     </row>
-    <row r="44" ht="18.75" spans="1:2">
+    <row r="44" ht="20.4" spans="1:2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
     </row>
-    <row r="45" ht="18.75" spans="1:2">
+    <row r="45" ht="20.4" spans="1:2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
     </row>
-    <row r="46" ht="18.75" spans="1:2">
+    <row r="46" ht="20.4" spans="1:2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
     </row>
-    <row r="47" ht="18.75" spans="1:2">
+    <row r="47" ht="20.4" spans="1:2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
     </row>
-    <row r="48" ht="18.75" spans="1:2">
+    <row r="48" ht="20.4" spans="1:2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
     </row>
-    <row r="49" ht="18.75" spans="1:2">
+    <row r="49" ht="20.4" spans="1:2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
     </row>
-    <row r="50" ht="18.75" spans="1:2">
+    <row r="50" ht="20.4" spans="1:2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
     </row>
-    <row r="51" ht="18.75" spans="1:2">
+    <row r="51" ht="20.4" spans="1:2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
     </row>
-    <row r="52" ht="18.75" spans="1:2">
+    <row r="52" ht="20.4" spans="1:2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
     </row>
-    <row r="53" ht="18.75" spans="1:2">
+    <row r="53" ht="20.4" spans="1:2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
     </row>
-    <row r="54" ht="18.75" spans="1:2">
+    <row r="54" ht="20.4" spans="1:2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
     </row>
-    <row r="55" ht="18.75" spans="1:2">
+    <row r="55" ht="20.4" spans="1:2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
     </row>
-    <row r="56" ht="18.75" spans="1:2">
+    <row r="56" ht="20.4" spans="1:2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
     </row>
-    <row r="57" ht="18.75" spans="1:2">
+    <row r="57" ht="20.4" spans="1:2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
     </row>
-    <row r="58" ht="18.75" spans="1:2">
+    <row r="58" ht="20.4" spans="1:2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
     </row>
-    <row r="59" ht="18.75" spans="1:2">
+    <row r="59" ht="20.4" spans="1:2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
     </row>
-    <row r="60" ht="18.75" spans="1:2">
+    <row r="60" ht="20.4" spans="1:2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
     </row>
-    <row r="61" ht="18.75" spans="1:2">
+    <row r="61" ht="20.4" spans="1:2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
     </row>
-    <row r="62" ht="18.75" spans="1:2">
+    <row r="62" ht="20.4" spans="1:2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
     </row>
-    <row r="63" ht="18.75" spans="1:2">
+    <row r="63" ht="20.4" spans="1:2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
     </row>
-    <row r="64" ht="18.75" spans="1:2">
+    <row r="64" ht="20.4" spans="1:2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
     </row>
-    <row r="65" ht="18.75" spans="1:2">
+    <row r="65" ht="20.4" spans="1:2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
     </row>
-    <row r="66" ht="18.75" spans="1:2">
+    <row r="66" ht="20.4" spans="1:2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
     </row>
-    <row r="67" ht="18.75" spans="1:2">
+    <row r="67" ht="20.4" spans="1:2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
     </row>
-    <row r="68" ht="18.75" spans="1:2">
+    <row r="68" ht="20.4" spans="1:2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
     </row>
-    <row r="69" ht="18.75" spans="1:2">
+    <row r="69" ht="20.4" spans="1:2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
     </row>
-    <row r="70" ht="18.75" spans="1:2">
+    <row r="70" ht="20.4" spans="1:2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
     </row>
-    <row r="71" ht="18.75" spans="1:2">
+    <row r="71" ht="20.4" spans="1:2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
     </row>
-    <row r="72" ht="18.75" spans="1:2">
+    <row r="72" ht="20.4" spans="1:2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
     </row>
-    <row r="73" ht="18.75" spans="1:2">
+    <row r="73" ht="20.4" spans="1:2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
     </row>
-    <row r="74" ht="18.75" spans="1:2">
+    <row r="74" ht="20.4" spans="1:2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
     </row>
-    <row r="75" ht="18.75" spans="1:2">
+    <row r="75" ht="20.4" spans="1:2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
     </row>
-    <row r="76" ht="18.75" spans="1:2">
-      <c r="A76" s="2" t="s">
+    <row r="76" ht="20.4" spans="1:3">
+      <c r="A76" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" ht="18.75" spans="1:2">
-      <c r="A77" s="2" t="s">
+      <c r="C76" t="s">
         <v>2</v>
       </c>
-      <c r="B77" s="2" t="s">
+    </row>
+    <row r="77" ht="20.4" spans="1:3">
+      <c r="A77" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="78" ht="18.75" spans="1:2">
-      <c r="A78" s="2" t="s">
+      <c r="B77" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="C77" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="79" ht="18.75" spans="1:2">
-      <c r="A79" s="2" t="s">
+    <row r="78" ht="20.4" spans="1:3">
+      <c r="A78" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B78" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="80" ht="18.75" spans="1:2">
-      <c r="A80" s="2" t="s">
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" ht="20.4" spans="1:3">
+      <c r="A79" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B79" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="81" ht="18.75" spans="1:2">
-      <c r="A81" s="2" t="s">
+      <c r="C79" t="s">
         <v>10</v>
       </c>
-      <c r="B81" s="2" t="s">
+    </row>
+    <row r="80" ht="20.4" spans="1:3">
+      <c r="A80" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="82" ht="18.75" spans="1:2">
-      <c r="A82" s="2" t="s">
+      <c r="B80" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" ht="20.4" spans="1:3">
+      <c r="A81" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="83" ht="18.75" spans="1:2">
-      <c r="A83" s="2" t="s">
+      <c r="B81" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" ht="20.4" spans="1:2">
+      <c r="A82" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="84" ht="18.75" spans="1:2">
-      <c r="A84" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B84" s="2" t="s">
+    </row>
+    <row r="83" ht="20.4" spans="1:2">
+      <c r="A83" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="85" ht="18.75" spans="1:2">
-      <c r="A85" s="2" t="s">
+      <c r="B83" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B85" s="2" t="s">
+    </row>
+    <row r="84" ht="20.4" spans="1:2">
+      <c r="A84" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="86" ht="18.75" spans="1:2">
-      <c r="A86" s="2" t="s">
+      <c r="B84" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B86" s="2" t="s">
+    </row>
+    <row r="85" ht="20.4" spans="1:2">
+      <c r="A85" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="87" ht="18.75" spans="1:2">
-      <c r="A87" s="2" t="s">
+      <c r="B85" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B87" s="2" t="s">
+    </row>
+    <row r="86" ht="20.4" spans="1:2">
+      <c r="A86" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="88" ht="18.75" spans="1:2">
-      <c r="A88" s="2" t="s">
+      <c r="B86" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B88" s="2" t="s">
+    </row>
+    <row r="87" ht="20.4" spans="1:2">
+      <c r="A87" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="89" ht="18.75" spans="1:2">
-      <c r="A89" s="2" t="s">
+      <c r="B87" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B89" s="2" t="s">
+    </row>
+    <row r="88" ht="20.4" spans="1:2">
+      <c r="A88" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="90" ht="18.75" spans="1:2">
-      <c r="A90" s="2" t="s">
+      <c r="B88" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B90" s="2" t="s">
+    </row>
+    <row r="89" ht="20.4" spans="1:2">
+      <c r="A89" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="91" ht="18.75" spans="1:2">
-      <c r="A91" s="2" t="s">
+      <c r="B89" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B91" s="2" t="s">
+    </row>
+    <row r="90" ht="20.4" spans="1:2">
+      <c r="A90" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="92" ht="18.75" spans="1:2">
-      <c r="A92" s="2" t="s">
+      <c r="B90" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B92" s="2" t="s">
+    </row>
+    <row r="91" ht="20.4" spans="1:2">
+      <c r="A91" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="93" ht="18.75" spans="1:2">
-      <c r="A93" s="2" t="s">
+      <c r="B91" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B93" s="2" t="s">
+    </row>
+    <row r="92" ht="20.4" spans="1:2">
+      <c r="A92" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="94" ht="18.75" spans="1:2">
-      <c r="A94" s="2" t="s">
+      <c r="B92" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B94" s="2" t="s">
+    </row>
+    <row r="93" ht="20.4" spans="1:2">
+      <c r="A93" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="95" ht="18.75" spans="1:2">
-      <c r="A95" s="2" t="s">
+      <c r="B93" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B95" s="2" t="s">
+    </row>
+    <row r="94" ht="20.4" spans="1:2">
+      <c r="A94" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="96" ht="18.75" spans="1:2">
-      <c r="A96" s="2" t="s">
+      <c r="B94" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B96" s="2" t="s">
+    </row>
+    <row r="95" ht="20.4" spans="1:2">
+      <c r="A95" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="97" ht="18.75" spans="1:2">
-      <c r="A97" s="2" t="s">
+      <c r="B95" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B97" s="2" t="s">
+    </row>
+    <row r="96" ht="20.4" spans="1:2">
+      <c r="A96" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="98" ht="18.75" spans="1:2">
-      <c r="A98" s="2" t="s">
+      <c r="B96" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B98" s="2" t="s">
+    </row>
+    <row r="97" ht="20.4" spans="1:2">
+      <c r="A97" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="99" ht="18.75" spans="1:2">
-      <c r="A99" s="2" t="s">
+      <c r="B97" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B99" s="2" t="s">
+    </row>
+    <row r="98" ht="20.4" spans="1:2">
+      <c r="A98" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="100" ht="18.75" spans="1:2">
-      <c r="A100" s="2" t="s">
+      <c r="B98" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B100" s="2" t="s">
+    </row>
+    <row r="99" ht="20.4" spans="1:2">
+      <c r="A99" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="101" ht="18.75" spans="1:2">
-      <c r="A101" s="2" t="s">
+      <c r="B99" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B101" s="2" t="s">
+    </row>
+    <row r="100" ht="20.4" spans="1:2">
+      <c r="A100" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="102" ht="18.75" spans="1:2">
-      <c r="A102" s="2" t="s">
+      <c r="B100" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B102" s="2" t="s">
+    </row>
+    <row r="101" ht="20.4" spans="1:2">
+      <c r="A101" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="103" ht="18.75" spans="1:2">
-      <c r="A103" s="2" t="s">
+      <c r="B101" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B103" s="2" t="s">
+    </row>
+    <row r="102" ht="20.4" spans="1:2">
+      <c r="A102" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="104" ht="18.75" spans="1:2">
-      <c r="A104" s="2" t="s">
+      <c r="B102" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B104" s="2" t="s">
+    </row>
+    <row r="103" ht="20.4" spans="1:2">
+      <c r="A103" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="105" ht="18.75" spans="1:2">
-      <c r="A105" s="2" t="s">
+      <c r="B103" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B105" s="2" t="s">
+    </row>
+    <row r="104" ht="20.4" spans="1:2">
+      <c r="A104" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="106" ht="18.75" spans="1:2">
-      <c r="A106" s="2" t="s">
+      <c r="B104" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B106" s="2" t="s">
+    </row>
+    <row r="105" ht="20.4" spans="1:2">
+      <c r="A105" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="107" ht="18.75" spans="1:2">
+      <c r="B105" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="106" ht="20.4" spans="1:2">
+      <c r="A106" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="107" ht="20.4" spans="1:2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
     </row>
-    <row r="108" ht="18.75" spans="1:2">
+    <row r="108" ht="20.4" spans="1:2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
     </row>
-    <row r="109" ht="18.75" spans="1:2">
+    <row r="109" ht="20.4" spans="1:2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
     </row>
-    <row r="110" ht="18.75" spans="1:2">
+    <row r="110" ht="20.4" spans="1:2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
     </row>
-    <row r="111" ht="18.75" spans="1:2">
+    <row r="111" ht="20.4" spans="1:2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
     </row>
-    <row r="112" ht="18.75" spans="1:2">
+    <row r="112" ht="20.4" spans="1:2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
     </row>
-    <row r="113" ht="18.75" spans="1:2">
+    <row r="113" ht="20.4" spans="1:2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
     </row>
-    <row r="114" ht="18.75" spans="1:2">
+    <row r="114" ht="20.4" spans="1:2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
     </row>
-    <row r="115" ht="18.75" spans="1:2">
+    <row r="115" ht="20.4" spans="1:2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
     </row>
-    <row r="116" ht="18.75" spans="1:2">
+    <row r="116" ht="20.4" spans="1:2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
     </row>
-    <row r="117" ht="18.75" spans="1:2">
+    <row r="117" ht="20.4" spans="1:2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
     </row>
-    <row r="118" ht="18.75" spans="1:2">
+    <row r="118" ht="20.4" spans="1:2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
     </row>
-    <row r="119" ht="18.75" spans="1:2">
+    <row r="119" ht="20.4" spans="1:2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
     </row>
-    <row r="120" ht="18.75" spans="1:2">
+    <row r="120" ht="20.4" spans="1:2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
     </row>
-    <row r="121" ht="18.75" spans="1:2">
+    <row r="121" ht="20.4" spans="1:2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
     </row>
-    <row r="122" ht="18.75" spans="1:2">
+    <row r="122" ht="20.4" spans="1:2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
     </row>
-    <row r="123" ht="18.75" spans="1:2">
+    <row r="123" ht="20.4" spans="1:2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
     </row>
-    <row r="124" ht="18.75" spans="1:2">
+    <row r="124" ht="20.4" spans="1:2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
     </row>
-    <row r="125" ht="18.75" spans="1:2">
+    <row r="125" ht="20.4" spans="1:2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
     </row>
-    <row r="126" ht="18.75" spans="1:2">
+    <row r="126" ht="20.4" spans="1:2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
     </row>
-    <row r="127" ht="18.75" spans="1:2">
+    <row r="127" ht="20.4" spans="1:2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
     </row>
-    <row r="128" ht="18.75" spans="1:2">
+    <row r="128" ht="20.4" spans="1:2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
     </row>
-    <row r="129" ht="18.75" spans="1:2">
+    <row r="129" ht="20.4" spans="1:2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
     </row>
-    <row r="130" ht="18.75" spans="1:2">
+    <row r="130" ht="20.4" spans="1:2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
     </row>
-    <row r="131" ht="18.75" spans="1:2">
+    <row r="131" ht="20.4" spans="1:2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
     </row>
-    <row r="132" ht="18.75" spans="1:2">
+    <row r="132" ht="20.4" spans="1:2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
     </row>
-    <row r="133" ht="18.75" spans="1:2">
+    <row r="133" ht="20.4" spans="1:2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
     </row>
-    <row r="134" ht="18.75" spans="1:2">
+    <row r="134" ht="20.4" spans="1:2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
     </row>
-    <row r="135" ht="18.75" spans="1:2">
+    <row r="135" ht="20.4" spans="1:2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
     </row>
-    <row r="136" ht="18.75" spans="1:2">
+    <row r="136" ht="20.4" spans="1:2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
     </row>
-    <row r="137" ht="18.75" spans="1:2">
+    <row r="137" ht="20.4" spans="1:2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
     </row>
-    <row r="138" ht="18.75" spans="1:2">
+    <row r="138" ht="20.4" spans="1:2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
     </row>
-    <row r="139" ht="18.75" spans="1:2">
+    <row r="139" ht="20.4" spans="1:2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
     </row>
-    <row r="140" ht="18.75" spans="1:2">
+    <row r="140" ht="20.4" spans="1:2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
     </row>
-    <row r="141" ht="18.75" spans="1:2">
+    <row r="141" ht="20.4" spans="1:2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
     </row>
-    <row r="142" ht="18.75" spans="1:2">
+    <row r="142" ht="20.4" spans="1:2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
     </row>
-    <row r="143" ht="18.75" spans="1:2">
+    <row r="143" ht="20.4" spans="1:2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
     </row>
-    <row r="144" ht="18.75" spans="1:2">
+    <row r="144" ht="20.4" spans="1:2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
     </row>
-    <row r="145" ht="18.75" spans="1:2">
+    <row r="145" ht="20.4" spans="1:2">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
     </row>
-    <row r="146" ht="18.75" spans="1:2">
+    <row r="146" ht="20.4" spans="1:2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
     </row>
-    <row r="147" ht="18.75" spans="1:2">
+    <row r="147" ht="20.4" spans="1:2">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
     </row>
-    <row r="148" ht="18.75" spans="1:2">
+    <row r="148" ht="20.4" spans="1:2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
     </row>
-    <row r="149" ht="18.75" spans="1:2">
+    <row r="149" ht="20.4" spans="1:2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1929,16 +1953,16 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1946,9 +1970,9 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
